--- a/sample/Nạp đầu.xlsx
+++ b/sample/Nạp đầu.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
   <si>
     <t>index</t>
   </si>
@@ -56,6 +56,9 @@
     <t>Đại lý</t>
   </si>
   <si>
+    <t>tiền tệ</t>
+  </si>
+  <si>
     <t>Số dư tài khoản</t>
   </si>
   <si>
@@ -71,13 +74,13 @@
     <t>số lần nạp</t>
   </si>
   <si>
-    <t>tổng nạp</t>
+    <t>tổng tiền nạp</t>
   </si>
   <si>
     <t>số lần rút</t>
   </si>
   <si>
-    <t>tổng rút</t>
+    <t>số tiền rút</t>
   </si>
   <si>
     <t>Tg nạp lần đầu</t>
@@ -147,6 +150,9 @@
   </si>
   <si>
     <t>defaultagent</t>
+  </si>
+  <si>
+    <t>vnd</t>
   </si>
   <si>
     <t>30/7/2025</t>
@@ -1439,27 +1445,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2:AJ7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="4" max="4" width="15.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="11.1111111111111"/>
-    <col min="9" max="9" width="11.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="11.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="9.88888888888889" customWidth="1"/>
-    <col min="18" max="18" width="11.2407407407407" customWidth="1"/>
-    <col min="25" max="25" width="9.88888888888889" customWidth="1"/>
-    <col min="29" max="29" width="10.6666666666667" customWidth="1"/>
-    <col min="30" max="30" width="11.2222222222222" customWidth="1"/>
-    <col min="35" max="35" width="14.8888888888889" customWidth="1"/>
+    <col min="9" max="10" width="11.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
+    <col min="12" max="12" width="9.88888888888889" customWidth="1"/>
+    <col min="19" max="19" width="11.2407407407407" customWidth="1"/>
+    <col min="26" max="26" width="9.88888888888889" customWidth="1"/>
+    <col min="30" max="30" width="10.6666666666667" customWidth="1"/>
+    <col min="31" max="31" width="11.2222222222222" customWidth="1"/>
+    <col min="36" max="36" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:57">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1487,149 +1493,149 @@
       <c r="I1">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>21</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>22</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>23</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>24</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>25</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>26</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>27</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>28</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>29</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>30</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>31</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>32</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <v>33</v>
       </c>
-      <c r="AI1">
+      <c r="AJ1">
         <v>34</v>
       </c>
-      <c r="AJ1">
+      <c r="AK1">
         <v>35</v>
       </c>
-      <c r="AK1">
+      <c r="AL1">
         <v>36</v>
       </c>
-      <c r="AL1">
+      <c r="AM1">
         <v>37</v>
       </c>
-      <c r="AM1">
+      <c r="AN1">
         <v>38</v>
       </c>
-      <c r="AN1">
+      <c r="AO1">
         <v>39</v>
       </c>
-      <c r="AO1">
+      <c r="AP1">
         <v>40</v>
       </c>
-      <c r="AP1">
+      <c r="AQ1">
         <v>41</v>
       </c>
-      <c r="AQ1">
+      <c r="AR1">
         <v>42</v>
       </c>
-      <c r="AR1">
-        <v>43</v>
-      </c>
       <c r="AS1">
+        <v>43</v>
+      </c>
+      <c r="AT1">
         <v>44</v>
       </c>
-      <c r="AT1">
+      <c r="AU1">
         <v>45</v>
       </c>
-      <c r="AU1">
+      <c r="AV1">
         <v>46</v>
       </c>
-      <c r="AV1">
+      <c r="AW1">
         <v>47</v>
       </c>
-      <c r="AW1">
+      <c r="AX1">
         <v>48</v>
       </c>
-      <c r="AX1">
+      <c r="AY1">
         <v>49</v>
       </c>
-      <c r="AY1">
+      <c r="AZ1">
         <v>50</v>
       </c>
-      <c r="AZ1">
+      <c r="BA1">
         <v>51</v>
       </c>
-      <c r="BA1">
+      <c r="BB1">
         <v>52</v>
       </c>
-      <c r="BB1">
+      <c r="BC1">
         <v>53</v>
       </c>
-      <c r="BC1">
+      <c r="BD1">
         <v>54</v>
       </c>
-      <c r="BD1">
+      <c r="BE1">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1732,11 +1738,14 @@
       <c r="AH2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AI2" t="s">
         <v>34</v>
       </c>
+      <c r="AK2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" ht="57.6" spans="1:36">
+    <row r="3" ht="57.6" spans="1:37">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1744,100 +1753,103 @@
         <v>100001</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1">
         <v>36526</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>1000</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3">
         <v>100</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-100</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>100</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>10</v>
       </c>
-      <c r="R3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3">
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3">
         <v>100</v>
       </c>
-      <c r="T3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3">
+      <c r="U3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3">
         <v>100</v>
       </c>
-      <c r="V3" t="s">
-        <v>40</v>
-      </c>
       <c r="W3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="X3" t="s">
+        <v>43</v>
       </c>
       <c r="Z3" t="s">
         <v>42</v>
       </c>
-      <c r="AB3" t="s">
-        <v>43</v>
+      <c r="AA3" t="s">
+        <v>44</v>
       </c>
       <c r="AC3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD3" t="s">
         <v>42</v>
       </c>
       <c r="AE3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AF3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AG3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AH3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="4" ht="72" spans="1:36">
+    <row r="4" ht="72" spans="1:37">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1845,103 +1857,106 @@
         <v>100002</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1">
         <v>36527</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>1000</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4">
         <v>200</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>200</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>20</v>
       </c>
-      <c r="R4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4">
+      <c r="S4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4">
         <v>200</v>
       </c>
-      <c r="T4" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4">
+      <c r="U4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4">
         <v>200</v>
       </c>
-      <c r="V4" t="s">
-        <v>50</v>
-      </c>
       <c r="W4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="X4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Y4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z4" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" t="s">
-        <v>53</v>
+      <c r="AA4" t="s">
+        <v>54</v>
       </c>
       <c r="AC4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD4" t="s">
         <v>52</v>
       </c>
       <c r="AE4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="AF4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AG4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AH4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="5" ht="57.6" spans="1:36">
+    <row r="5" ht="57.6" spans="1:37">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1949,103 +1964,106 @@
         <v>100003</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1">
         <v>36528</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>1000</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5">
         <v>300</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>200</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>300</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>3000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5">
+      <c r="S5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5">
         <v>300</v>
       </c>
-      <c r="T5" t="s">
-        <v>60</v>
-      </c>
-      <c r="U5">
+      <c r="U5" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5">
         <v>300</v>
       </c>
-      <c r="V5" t="s">
-        <v>60</v>
-      </c>
       <c r="W5" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="X5" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="Y5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Z5" t="s">
         <v>62</v>
       </c>
-      <c r="AB5" t="s">
-        <v>63</v>
+      <c r="AA5" t="s">
+        <v>64</v>
       </c>
       <c r="AC5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD5" t="s">
         <v>62</v>
       </c>
       <c r="AE5" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AF5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AG5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AH5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="6" ht="72" spans="1:36">
+    <row r="6" ht="72" spans="1:37">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2053,100 +2071,103 @@
         <v>100004</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1">
         <v>36529</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H6">
         <v>1000</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6">
         <v>400</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-300</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>3</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>400</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>3</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>4000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>4</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>40</v>
       </c>
-      <c r="R6" t="s">
-        <v>70</v>
-      </c>
-      <c r="S6">
+      <c r="S6" t="s">
+        <v>72</v>
+      </c>
+      <c r="T6">
         <v>400</v>
       </c>
-      <c r="T6" t="s">
-        <v>70</v>
-      </c>
-      <c r="U6">
+      <c r="U6" t="s">
+        <v>72</v>
+      </c>
+      <c r="V6">
         <v>400</v>
       </c>
-      <c r="V6" t="s">
-        <v>70</v>
-      </c>
       <c r="W6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="X6" t="s">
+        <v>43</v>
       </c>
       <c r="Z6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB6" t="s">
         <v>72</v>
       </c>
+      <c r="AA6" t="s">
+        <v>73</v>
+      </c>
       <c r="AC6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AG6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AH6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="7" ht="57.6" spans="1:36">
+    <row r="7" ht="57.6" spans="1:37">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2154,97 +2175,100 @@
         <v>100005</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1">
         <v>36530</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H7">
         <v>1000</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7">
-        <v>500</v>
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
       </c>
       <c r="K7">
         <v>500</v>
       </c>
       <c r="L7">
+        <v>500</v>
+      </c>
+      <c r="M7">
         <v>4</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>500</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>5</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>5000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>5</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>50</v>
       </c>
-      <c r="R7" t="s">
-        <v>79</v>
-      </c>
-      <c r="S7">
+      <c r="S7" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7">
         <v>500</v>
       </c>
-      <c r="T7" t="s">
-        <v>79</v>
-      </c>
-      <c r="U7">
+      <c r="U7" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7">
         <v>500</v>
       </c>
-      <c r="V7" t="s">
-        <v>79</v>
-      </c>
       <c r="W7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="X7" t="s">
+        <v>43</v>
       </c>
       <c r="Z7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB7" t="s">
         <v>81</v>
       </c>
+      <c r="AA7" t="s">
+        <v>82</v>
+      </c>
       <c r="AC7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AD7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AG7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AH7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
-        <v>82</v>
+        <v>43</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/sample/Nạp đầu.xlsx
+++ b/sample/Nạp đầu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView windowWidth="22188" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
     <t>KVĐN cuối</t>
   </si>
   <si>
-    <t>Link đn cuối</t>
+    <t>tên miền đăng nhập lần cuối</t>
   </si>
   <si>
     <t>TG đăng ký</t>
@@ -1447,8 +1447,8 @@
   <sheetPr/>
   <dimension ref="A1:BE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>

--- a/sample/Nạp đầu.xlsx
+++ b/sample/Nạp đầu.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
   <si>
     <t>index</t>
   </si>
@@ -35,7 +35,7 @@
     <t>TK GPN</t>
   </si>
   <si>
-    <t>Tài khoản</t>
+    <t>Tên Tài khoản</t>
   </si>
   <si>
     <t>Họ tên</t>
@@ -47,7 +47,10 @@
     <t>Cấp độ</t>
   </si>
   <si>
-    <t>NGT</t>
+    <t>ngày sinh</t>
+  </si>
+  <si>
+    <t>tài khoản người giới thiệu</t>
   </si>
   <si>
     <t>Mã đại lý</t>
@@ -1445,27 +1448,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BE7"/>
+  <dimension ref="A1:BF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="4" max="4" width="15.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="11.1111111111111"/>
-    <col min="9" max="10" width="11.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
-    <col min="12" max="12" width="9.88888888888889" customWidth="1"/>
-    <col min="19" max="19" width="11.2407407407407" customWidth="1"/>
-    <col min="26" max="26" width="9.88888888888889" customWidth="1"/>
-    <col min="30" max="30" width="10.6666666666667" customWidth="1"/>
-    <col min="31" max="31" width="11.2222222222222" customWidth="1"/>
-    <col min="36" max="36" width="14.8888888888889" customWidth="1"/>
+    <col min="10" max="11" width="11.5555555555556" customWidth="1"/>
+    <col min="12" max="12" width="11.7777777777778" customWidth="1"/>
+    <col min="13" max="13" width="9.88888888888889" customWidth="1"/>
+    <col min="20" max="20" width="11.2407407407407" customWidth="1"/>
+    <col min="27" max="27" width="9.88888888888889" customWidth="1"/>
+    <col min="31" max="31" width="10.6666666666667" customWidth="1"/>
+    <col min="32" max="32" width="11.2222222222222" customWidth="1"/>
+    <col min="37" max="37" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:58">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1484,158 +1487,158 @@
       <c r="F1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>8</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>9</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>10</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>11</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>12</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>13</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>14</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>15</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>16</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>17</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>18</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>19</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>20</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>21</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>22</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>23</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>24</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>25</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>26</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>27</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>28</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>29</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>30</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>31</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <v>32</v>
       </c>
-      <c r="AI1">
+      <c r="AJ1">
         <v>33</v>
       </c>
-      <c r="AJ1">
+      <c r="AK1">
         <v>34</v>
       </c>
-      <c r="AK1">
+      <c r="AL1">
         <v>35</v>
       </c>
-      <c r="AL1">
+      <c r="AM1">
         <v>36</v>
       </c>
-      <c r="AM1">
+      <c r="AN1">
         <v>37</v>
       </c>
-      <c r="AN1">
+      <c r="AO1">
         <v>38</v>
       </c>
-      <c r="AO1">
+      <c r="AP1">
         <v>39</v>
       </c>
-      <c r="AP1">
+      <c r="AQ1">
         <v>40</v>
       </c>
-      <c r="AQ1">
+      <c r="AR1">
         <v>41</v>
       </c>
-      <c r="AR1">
+      <c r="AS1">
         <v>42</v>
       </c>
-      <c r="AS1">
+      <c r="AT1">
         <v>43</v>
       </c>
-      <c r="AT1">
-        <v>44</v>
-      </c>
       <c r="AU1">
+        <v>44</v>
+      </c>
+      <c r="AV1">
         <v>45</v>
       </c>
-      <c r="AV1">
+      <c r="AW1">
         <v>46</v>
       </c>
-      <c r="AW1">
+      <c r="AX1">
         <v>47</v>
       </c>
-      <c r="AX1">
+      <c r="AY1">
         <v>48</v>
       </c>
-      <c r="AY1">
+      <c r="AZ1">
         <v>49</v>
       </c>
-      <c r="AZ1">
+      <c r="BA1">
         <v>50</v>
       </c>
-      <c r="BA1">
+      <c r="BB1">
         <v>51</v>
       </c>
-      <c r="BB1">
+      <c r="BC1">
         <v>52</v>
       </c>
-      <c r="BC1">
+      <c r="BD1">
         <v>53</v>
       </c>
-      <c r="BD1">
+      <c r="BE1">
         <v>54</v>
       </c>
-      <c r="BE1">
+      <c r="BF1">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1741,11 +1744,14 @@
       <c r="AI2" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AJ2" t="s">
         <v>35</v>
       </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" ht="57.6" spans="1:37">
+    <row r="3" ht="57.6" spans="1:38">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1753,103 +1759,103 @@
         <v>100001</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1">
         <v>36526</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3">
         <v>1000</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
       </c>
       <c r="J3" t="s">
         <v>41</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3">
         <v>100</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-100</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>100</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>10</v>
       </c>
-      <c r="S3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3">
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3">
         <v>100</v>
       </c>
-      <c r="U3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3">
+      <c r="V3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3">
         <v>100</v>
-      </c>
-      <c r="W3" t="s">
-        <v>42</v>
       </c>
       <c r="X3" t="s">
         <v>43</v>
       </c>
-      <c r="Z3" t="s">
-        <v>42</v>
+      <c r="Y3" t="s">
+        <v>44</v>
       </c>
       <c r="AA3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" t="s">
         <v>45</v>
       </c>
       <c r="AD3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AE3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AG3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" ht="72" spans="1:37">
+    <row r="4" ht="72" spans="1:38">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1857,106 +1863,106 @@
         <v>100002</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1">
         <v>36527</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s">
         <v>50</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4">
         <v>1000</v>
       </c>
-      <c r="I4" t="s">
-        <v>51</v>
-      </c>
       <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4">
         <v>200</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>200</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>20</v>
       </c>
-      <c r="S4" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4">
+      <c r="T4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4">
         <v>200</v>
       </c>
-      <c r="U4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4">
+      <c r="V4" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4">
         <v>200</v>
       </c>
-      <c r="W4" t="s">
-        <v>52</v>
-      </c>
       <c r="X4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="Y4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" t="s">
         <v>53</v>
       </c>
-      <c r="Z4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="AB4" t="s">
         <v>55</v>
       </c>
       <c r="AD4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AE4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="5" ht="57.6" spans="1:37">
+    <row r="5" ht="57.6" spans="1:38">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1964,106 +1970,106 @@
         <v>100003</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1">
         <v>36528</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" t="s">
         <v>60</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5">
         <v>1000</v>
       </c>
-      <c r="I5" t="s">
-        <v>61</v>
-      </c>
       <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5">
         <v>300</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>200</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>300</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>3</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>30</v>
       </c>
-      <c r="S5" t="s">
-        <v>62</v>
-      </c>
-      <c r="T5">
+      <c r="T5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5">
         <v>300</v>
       </c>
-      <c r="U5" t="s">
-        <v>62</v>
-      </c>
-      <c r="V5">
+      <c r="V5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5">
         <v>300</v>
       </c>
-      <c r="W5" t="s">
-        <v>62</v>
-      </c>
       <c r="X5" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="Y5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA5" t="s">
         <v>63</v>
       </c>
-      <c r="Z5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AB5" t="s">
         <v>65</v>
       </c>
       <c r="AD5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AE5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF5" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="6" ht="72" spans="1:37">
+    <row r="6" ht="72" spans="1:38">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2071,103 +2077,103 @@
         <v>100004</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1">
         <v>36529</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" t="s">
         <v>70</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6">
         <v>1000</v>
       </c>
-      <c r="I6" t="s">
-        <v>71</v>
-      </c>
       <c r="J6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6">
         <v>400</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-300</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>3</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>400</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>3</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>4000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>4</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>40</v>
       </c>
-      <c r="S6" t="s">
-        <v>72</v>
-      </c>
-      <c r="T6">
+      <c r="T6" t="s">
+        <v>73</v>
+      </c>
+      <c r="U6">
         <v>400</v>
       </c>
-      <c r="U6" t="s">
-        <v>72</v>
-      </c>
-      <c r="V6">
+      <c r="V6" t="s">
+        <v>73</v>
+      </c>
+      <c r="W6">
         <v>400</v>
       </c>
-      <c r="W6" t="s">
-        <v>72</v>
-      </c>
       <c r="X6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>44</v>
       </c>
       <c r="AA6" t="s">
         <v>73</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AB6" t="s">
         <v>74</v>
       </c>
       <c r="AD6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s">
         <v>73</v>
       </c>
       <c r="AF6" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>75</v>
+        <v>44</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="7" ht="57.6" spans="1:37">
+    <row r="7" ht="57.6" spans="1:38">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2175,100 +2181,100 @@
         <v>100005</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1">
         <v>36530</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" t="s">
         <v>79</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7">
         <v>1000</v>
       </c>
-      <c r="I7" t="s">
-        <v>80</v>
-      </c>
       <c r="J7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7">
-        <v>500</v>
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
       </c>
       <c r="L7">
         <v>500</v>
       </c>
       <c r="M7">
+        <v>500</v>
+      </c>
+      <c r="N7">
         <v>4</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>500</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>5</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>5000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>5</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>50</v>
       </c>
-      <c r="S7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T7">
+      <c r="T7" t="s">
+        <v>82</v>
+      </c>
+      <c r="U7">
         <v>500</v>
       </c>
-      <c r="U7" t="s">
-        <v>81</v>
-      </c>
-      <c r="V7">
+      <c r="V7" t="s">
+        <v>82</v>
+      </c>
+      <c r="W7">
         <v>500</v>
       </c>
-      <c r="W7" t="s">
-        <v>81</v>
-      </c>
       <c r="X7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>44</v>
       </c>
       <c r="AA7" t="s">
         <v>82</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AB7" t="s">
         <v>83</v>
       </c>
       <c r="AD7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AE7" t="s">
         <v>82</v>
       </c>
       <c r="AF7" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AG7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>84</v>
+        <v>44</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
